--- a/Documentation/Teste.xlsx
+++ b/Documentation/Teste.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\BatailleNaval_ICT431_MA20\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\BatailleNavale_ICT431_MA20\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,32 +26,32 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
-    <t>Developpeur Ethann
+    <t>Jouer a la bataille navale</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Afficher l'aide de jeu</t>
+  </si>
+  <si>
+    <t>Scénario</t>
+  </si>
+  <si>
+    <t>Changer de pseudo</t>
+  </si>
+  <si>
+    <t>Afficher les scores</t>
+  </si>
+  <si>
+    <t>Developpeur 
 Ethann Schneider</t>
-  </si>
-  <si>
-    <t>Jouer a la bataille navale</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>Afficher l'aide de jeu</t>
-  </si>
-  <si>
-    <t>Scénario</t>
-  </si>
-  <si>
-    <t>Changer de pseudo</t>
-  </si>
-  <si>
-    <t>Afficher les scores</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -476,7 +476,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,42 +489,42 @@
     <row r="1" spans="1:2" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:2" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
